--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_1_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_1_sawtooth_05_.xlsx
@@ -581,73 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>22.6600000000001</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1025501248255156</v>
+        <v>0.1252732125536181</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1025501248255156</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.03407003174884793</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.03407003174884793</v>
-      </c>
+        <v>0.1252732125536181</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.147216027791714</v>
+        <v>6.262394207807397</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.2692583927769547, 15.563690448360383]</t>
+          <t>[-1.9388740424101218, 14.463662458024915]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.094085767388842</v>
+        <v>0.1310643432547369</v>
       </c>
       <c r="O2" t="n">
-        <v>0.094085767388842</v>
+        <v>0.1310643432547369</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.232737057264464</v>
+        <v>-1.157263359880925</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.1070005422890046, 0.6415264277600774]</t>
+          <t>[-4.1887902047863905, 1.8742634850245414]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1919547824976631</v>
+        <v>0.4459876373361134</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1919547824976631</v>
+        <v>0.4459876373361134</v>
       </c>
       <c r="T2" t="n">
-        <v>14.38107269100015</v>
+        <v>14.4267060099464</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.798166695487026, 18.96397868651328]</t>
+          <t>[10.199854944806694, 18.6535570750861]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.043633912622965e-07</v>
+        <v>1.565309792894709e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.043633912622965e-07</v>
+        <v>1.565309792894709e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>4.316316316316318</v>
+        <v>4.173613613613632</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.246246246246244</v>
+        <v>-6.75943943943947</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.87887887887888</v>
+        <v>15.10666666666673</v>
       </c>
     </row>
     <row r="3">
@@ -671,73 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>22.6600000000001</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1033269553278947</v>
+        <v>0.3494728459295356</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1033269553278947</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1359096778100257</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1359096778100257</v>
-      </c>
+        <v>0.3494728459295356</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.653897284744973</v>
+        <v>4.148521890117696</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.2527063905002898, 12.560500959990236]</t>
+          <t>[-3.2858142893960167, 11.582858069631408]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.106155910996939</v>
+        <v>0.2670096347029915</v>
       </c>
       <c r="O3" t="n">
-        <v>0.106155910996939</v>
+        <v>0.2670096347029915</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.106947561625232</v>
+        <v>-0.6415264277600778</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.811421717868698, 1.597526594618233]</t>
+          <t>[-3.773684869176928, 2.4906320136567723]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.4140736177548843</v>
+        <v>0.6819118904452921</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4140736177548843</v>
+        <v>0.6819118904452921</v>
       </c>
       <c r="T3" t="n">
-        <v>12.64401859956608</v>
+        <v>11.48752044338136</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.977970518048494, 16.310066681083658]</t>
+          <t>[7.4042193493186845, 15.570821537444036]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.223093493152305e-08</v>
+        <v>9.744598474803468e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>1.223093493152305e-08</v>
+        <v>9.744598474803468e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>3.875875875875877</v>
+        <v>2.313633633633646</v>
       </c>
       <c r="Y3" t="n">
-        <v>-5.593593593593592</v>
+        <v>-8.982342342342379</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.34534534534535</v>
+        <v>13.60960960960967</v>
       </c>
     </row>
     <row r="4">
@@ -761,73 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>22.6600000000001</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1231203269313762</v>
+        <v>0.4731565723452211</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1231203269313762</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.03386433790636867</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.03386433790636867</v>
-      </c>
+        <v>0.4731565723452211</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.568400056051222</v>
+        <v>3.208791759725513</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.3441738790983884, 14.480973991200832]</t>
+          <t>[-4.112457419811747, 10.530040939262772]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1014743587529126</v>
+        <v>0.3820624591487847</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1014743587529126</v>
+        <v>0.3820624591487847</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.06289474781961513</v>
+        <v>-0.7421580242714629</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-1.6415529180919632, 1.515763422452733]</t>
+          <t>[-3.880605940470276, 2.39628989192735]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.936399672029363</v>
+        <v>0.6361786906174629</v>
       </c>
       <c r="S4" t="n">
-        <v>0.936399672029363</v>
+        <v>0.6361786906174629</v>
       </c>
       <c r="T4" t="n">
-        <v>12.5702408136361</v>
+        <v>8.834438405073156</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.945673191741031, 17.194808435531172]</t>
+          <t>[5.100484860842917, 12.568391949303395]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.867176778747037e-06</v>
+        <v>2.000979382588142e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>1.867176778747037e-06</v>
+        <v>2.000979382588142e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2202202202202201</v>
+        <v>2.676556556556569</v>
       </c>
       <c r="Y4" t="n">
-        <v>-5.307307307307306</v>
+        <v>-8.642102102102145</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.747747747747747</v>
+        <v>13.99521521521528</v>
       </c>
     </row>
     <row r="5">
@@ -851,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.23000000000019</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0853799008662588</v>
+        <v>0.4590885691683511</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0853799008662588</v>
+        <v>0.4590885691683511</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.045447815940244</v>
+        <v>3.079095818246651</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.213384000889965, 13.304279632770452]</t>
+          <t>[-3.452350243296765, 9.610541879790066]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1003928434469039</v>
+        <v>0.3474374114302305</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1003928434469039</v>
+        <v>0.3474374114302305</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.5660527303765388</v>
+        <v>0.748447499053424</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.3648690083494266, 2.232763547596349]</t>
+          <t>[-2.390000417145388, 3.886895415252236]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.6856846723418322</v>
+        <v>0.6333286146673092</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6856846723418322</v>
+        <v>0.6333286146673092</v>
       </c>
       <c r="T5" t="n">
-        <v>10.4363507080092</v>
+        <v>11.92287435325395</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.63154735998668, 14.241154056031728]</t>
+          <t>[8.438266857725282, 15.407481848782616]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.576546514447941e-06</v>
+        <v>1.476601729777371e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>1.576546514447941e-06</v>
+        <v>1.476601729777371e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>2.092792792792807</v>
+        <v>21.00900900900927</v>
       </c>
       <c r="Y5" t="n">
-        <v>-8.254904904904974</v>
+        <v>9.09594594594606</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.44049049049059</v>
+        <v>32.92207207207247</v>
       </c>
     </row>
     <row r="6">
@@ -937,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.23000000000019</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.18852747951435</v>
+        <v>0.2349959514911214</v>
       </c>
       <c r="I6" t="n">
-        <v>0.18852747951435</v>
+        <v>0.2349959514911214</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.876649191669182</v>
+        <v>5.075871042422794</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.686300708079301, 13.439599091417666]</t>
+          <t>[-1.900227871626278, 12.051969956471865]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1245838466157732</v>
+        <v>0.14974299114317</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1245838466157732</v>
+        <v>0.14974299114317</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04402632347373103</v>
+        <v>-0.06289474781961513</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.786237328408965, 2.8742899753564273]</t>
+          <t>[-2.8428426014466197, 2.7170531058073895]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9751445188700492</v>
+        <v>0.9638562350637763</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9751445188700492</v>
+        <v>0.9638562350637763</v>
       </c>
       <c r="T6" t="n">
-        <v>12.47892826873168</v>
+        <v>11.6976191135965</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.913541270423547, 17.04431526703982]</t>
+          <t>[7.507787806511148, 15.88745042068185]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.682886935139294e-06</v>
+        <v>1.128101381198121e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.682886935139294e-06</v>
+        <v>1.128101381198121e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>23.06722722722742</v>
+        <v>0.2387387387387392</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.60326326326337</v>
+        <v>-10.31351351351364</v>
       </c>
       <c r="Z6" t="n">
-        <v>33.53119119119147</v>
+        <v>10.79099099099112</v>
       </c>
     </row>
     <row r="7">
@@ -1023,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.23000000000019</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02302114014712087</v>
+        <v>0.2065056341689916</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02302114014712087</v>
+        <v>0.2065056341689916</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>8.305337832257557</v>
+        <v>5.654094844476404</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[1.2562995218520019, 15.354376142663112]</t>
+          <t>[-2.906796451323821, 14.214986140276629]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0219732315005301</v>
+        <v>0.1901460026580026</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0219732315005301</v>
+        <v>0.1901460026580026</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1446579199851161</v>
+        <v>0.5723422051585008</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.0692107129334634, 1.3585265529036956]</t>
+          <t>[-2.5409478119124653, 3.685632222229467]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.8114027138339603</v>
+        <v>0.7129188256602306</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8114027138339603</v>
+        <v>0.7129188256602306</v>
       </c>
       <c r="T7" t="n">
-        <v>11.52999776908135</v>
+        <v>12.28195143236766</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.342280451075471, 15.717715087087232]</t>
+          <t>[7.8232525412250515, 16.740650323510273]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.468975685758878e-06</v>
+        <v>1.455839665487346e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.468975685758878e-06</v>
+        <v>1.455839665487346e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>22.69517517517536</v>
+        <v>21.67747747747774</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.20729729729744</v>
+        <v>9.85990990991003</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.18305305305328</v>
+        <v>33.49504504504545</v>
       </c>
     </row>
     <row r="8">
@@ -1109,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.23000000000019</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5168024387189984</v>
+        <v>0.2143724999783976</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5168024387189984</v>
+        <v>0.2143724999783976</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>3.599038622533242</v>
+        <v>4.994303577032705</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-4.480621249545285, 11.678698494611767]</t>
+          <t>[-2.182459386072537, 12.171066540137947]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3744026708001282</v>
+        <v>0.1678907365138116</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3744026708001282</v>
+        <v>0.1678907365138116</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2893158399702314</v>
+        <v>-0.2012631930227693</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.427763756169044, 2.8491320762285812]</t>
+          <t>[-2.9937899962136965, 2.591263610168158]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.8535388489776445</v>
+        <v>0.8852323130742965</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8535388489776445</v>
+        <v>0.8852323130742965</v>
       </c>
       <c r="T8" t="n">
-        <v>10.63845445336253</v>
+        <v>9.26139440383896</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.150735510145957, 15.126173396579098]</t>
+          <t>[5.272928176758814, 13.249860630919105]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.940910926623296e-05</v>
+        <v>2.67559056954525e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>1.940910926623296e-05</v>
+        <v>2.67559056954525e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>1.069649649649659</v>
+        <v>0.7639639639639704</v>
       </c>
       <c r="Y8" t="n">
-        <v>-10.53372372372381</v>
+        <v>-9.836036036036157</v>
       </c>
       <c r="Z8" t="n">
-        <v>12.67302302302313</v>
+        <v>11.3639639639641</v>
       </c>
     </row>
     <row r="9">
@@ -1195,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.23000000000019</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007186836813064978</v>
+        <v>0.04505366289941415</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007186836813064978</v>
+        <v>0.04505366289941415</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>8.184795498328391</v>
+        <v>7.486682964152179</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[1.4271548349664087, 14.942436161690374]</t>
+          <t>[-0.49173844110178955, 15.465104369406147]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.01871486856342774</v>
+        <v>0.06521396749050012</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01871486856342774</v>
+        <v>0.06521396749050012</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4717106086471166</v>
+        <v>0.4213948103914236</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.4654211338651546, 1.4088423511593877]</t>
+          <t>[-1.1698423094448476, 2.0126319302276947]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.3160934227033649</v>
+        <v>0.5963959009977726</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3160934227033649</v>
+        <v>0.5963959009977726</v>
       </c>
       <c r="T9" t="n">
-        <v>10.77006212720148</v>
+        <v>11.3106350697841</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.236131850048707, 14.303992404354243]</t>
+          <t>[7.166208309294518, 15.455061830273678]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.946188556978257e-07</v>
+        <v>1.732506327511985e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.946188556978257e-07</v>
+        <v>1.732506327511985e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>21.48600600600618</v>
+        <v>22.25045045045072</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.02127127127142</v>
+        <v>16.21036036036056</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.95074074074095</v>
+        <v>28.29054054054088</v>
       </c>
     </row>
     <row r="10">
@@ -1281,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.23000000000019</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04971556480306627</v>
+        <v>0.08003782592865516</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04971556480306627</v>
+        <v>0.08003782592865516</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.561329443554543</v>
+        <v>6.863122002707359</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.02004889106706642, 15.142707778176153]</t>
+          <t>[-0.2088954422377487, 13.935139447652466]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.05058341876725825</v>
+        <v>0.05685897199887258</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05058341876725825</v>
+        <v>0.05685897199887258</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2201316173686552</v>
+        <v>0.006289474781961069</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.1824212590087706, 1.622684493746081]</t>
+          <t>[-1.4088423511593868, 1.421421300723309]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.7533769543503341</v>
+        <v>0.9928973432811046</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7533769543503341</v>
+        <v>0.9928973432811046</v>
       </c>
       <c r="T10" t="n">
-        <v>11.99440274516795</v>
+        <v>10.99876416683304</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.690447140530514, 16.298358349805383]</t>
+          <t>[6.758215929619285, 15.239312404046789]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.16795869664621e-06</v>
+        <v>4.348259741160376e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.16795869664621e-06</v>
+        <v>4.348259741160376e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>22.41613613613632</v>
+        <v>23.82612612612642</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.2306606606608</v>
+        <v>18.45450450450473</v>
       </c>
       <c r="Z10" t="n">
-        <v>27.60161161161184</v>
+        <v>29.1977477477481</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_1_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_1_sawtooth_05_.xlsx
@@ -581,69 +581,73 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.6600000000001</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1252732125536181</v>
+        <v>0.3901074890152607</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1252732125536181</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>0.3901074890152607</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2593432990897981</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.2593432990897981</v>
+      </c>
       <c r="L2" t="n">
-        <v>6.262394207807397</v>
+        <v>4.795554711016495</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.9388740424101218, 14.463662458024915]</t>
+          <t>[-4.421215750603743, 14.012325172636732]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1310643432547369</v>
+        <v>0.3002563433124457</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1310643432547369</v>
+        <v>0.3002563433124457</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.157263359880925</v>
+        <v>-1.962316131972003</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.1887902047863905, 1.8742634850245414]</t>
+          <t>[-5.100764048170815, 1.1761317842268095]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.4459876373361134</v>
+        <v>0.2144081564703497</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4459876373361134</v>
+        <v>0.2144081564703497</v>
       </c>
       <c r="T2" t="n">
-        <v>14.4267060099464</v>
+        <v>15.48775204161002</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[10.199854944806694, 18.6535570750861]</t>
+          <t>[10.722276621714009, 20.253227461506025]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.565309792894709e-08</v>
+        <v>4.818726884181501e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.565309792894709e-08</v>
+        <v>4.818726884181501e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>4.173613613613632</v>
+        <v>6.870870870870871</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.75943943943947</v>
+        <v>-4.118118118118117</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.10666666666673</v>
+        <v>17.85985985985986</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +671,73 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.6600000000001</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3494728459295356</v>
+        <v>0.1102562599666382</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3494728459295356</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>0.1102562599666382</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1108754449400541</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1108754449400541</v>
+      </c>
       <c r="L3" t="n">
-        <v>4.148521890117696</v>
+        <v>6.397811033446414</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.2858142893960167, 11.582858069631408]</t>
+          <t>[-2.0250012617481232, 14.820623328640952]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2670096347029915</v>
+        <v>0.1330475549847638</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2670096347029915</v>
+        <v>0.1330475549847638</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.6415264277600778</v>
+        <v>-0.9811580659860013</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.773684869176928, 2.4906320136567723]</t>
+          <t>[-4.075579658711083, 2.1132635267390807]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.6819118904452921</v>
+        <v>0.5263085019929887</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6819118904452921</v>
+        <v>0.5263085019929887</v>
       </c>
       <c r="T3" t="n">
-        <v>11.48752044338136</v>
+        <v>12.32754654547464</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.4042193493186845, 15.570821537444036]</t>
+          <t>[8.080638625950066, 16.574454464999214]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.744598474803468e-07</v>
+        <v>5.276458021619135e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>9.744598474803468e-07</v>
+        <v>5.276458021619135e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>2.313633633633646</v>
+        <v>3.435435435435434</v>
       </c>
       <c r="Y3" t="n">
-        <v>-8.982342342342379</v>
+        <v>-7.399399399399403</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.60960960960967</v>
+        <v>14.27027027027027</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +761,73 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.6600000000001</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4731565723452211</v>
+        <v>0.1955860612059492</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4731565723452211</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>0.1955860612059492</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0490703559999307</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0490703559999307</v>
+      </c>
       <c r="L4" t="n">
-        <v>3.208791759725513</v>
+        <v>4.882916106059811</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-4.112457419811747, 10.530040939262772]</t>
+          <t>[-2.70694949397158, 12.472781706091203]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.3820624591487847</v>
+        <v>0.2016629695660375</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3820624591487847</v>
+        <v>0.2016629695660375</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.7421580242714629</v>
+        <v>-0.6792632764518469</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.880605940470276, 2.39628989192735]</t>
+          <t>[-3.811421717868698, 2.452895164965004]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.6361786906174629</v>
+        <v>0.6643499444344561</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6361786906174629</v>
+        <v>0.6643499444344561</v>
       </c>
       <c r="T4" t="n">
-        <v>8.834438405073156</v>
+        <v>13.32807189902867</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.100484860842917, 12.568391949303395]</t>
+          <t>[9.461673532006976, 17.194470266050363]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.000979382588142e-05</v>
+        <v>1.238304281336866e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>2.000979382588142e-05</v>
+        <v>1.238304281336866e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>2.676556556556569</v>
+        <v>2.378378378378375</v>
       </c>
       <c r="Y4" t="n">
-        <v>-8.642102102102145</v>
+        <v>-8.588588588588593</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.99521521521528</v>
+        <v>13.34534534534534</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +851,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.85000000000029</v>
+        <v>23.16000000000018</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4590885691683511</v>
+        <v>0.2679853481080048</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4590885691683511</v>
+        <v>0.2679853481080048</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.079095818246651</v>
+        <v>5.113507545078503</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.452350243296765, 9.610541879790066]</t>
+          <t>[-3.38993717256578, 13.616952262722787]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.3474374114302305</v>
+        <v>0.2321519227062483</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3474374114302305</v>
+        <v>0.2321519227062483</v>
       </c>
       <c r="P5" t="n">
-        <v>0.748447499053424</v>
+        <v>-0.3899474364816156</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.390000417145388, 3.886895415252236]</t>
+          <t>[-3.5095269283345436, 2.7296320553713125]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.6333286146673092</v>
+        <v>0.8023705893548798</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6333286146673092</v>
+        <v>0.8023705893548798</v>
       </c>
       <c r="T5" t="n">
-        <v>11.92287435325395</v>
+        <v>11.4777653696009</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.438266857725282, 15.407481848782616]</t>
+          <t>[6.999659826321314, 15.955870912880478]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.476601729777371e-08</v>
+        <v>5.348312809960731e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.476601729777371e-08</v>
+        <v>5.348312809960731e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>21.00900900900927</v>
+        <v>1.437357357357367</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.09594594594606</v>
+        <v>-10.06150150150158</v>
       </c>
       <c r="Z5" t="n">
-        <v>32.92207207207247</v>
+        <v>12.93621621621632</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +937,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.85000000000029</v>
+        <v>23.16000000000018</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2349959514911214</v>
+        <v>0.5564789960193379</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2349959514911214</v>
+        <v>0.5564789960193379</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.075871042422794</v>
+        <v>3.258510899449309</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.900227871626278, 12.051969956471865]</t>
+          <t>[-5.05289767761643, 11.569919476515048]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.14974299114317</v>
+        <v>0.4338822377978491</v>
       </c>
       <c r="O6" t="n">
-        <v>0.14974299114317</v>
+        <v>0.4338822377978491</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06289474781961513</v>
+        <v>0.3962369112635775</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.8428426014466197, 2.7170531058073895]</t>
+          <t>[-2.7296320553713116, 3.5221058778984666]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9638562350637763</v>
+        <v>0.7996478730425405</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9638562350637763</v>
+        <v>0.7996478730425405</v>
       </c>
       <c r="T6" t="n">
-        <v>11.6976191135965</v>
+        <v>13.1886561699218</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.507787806511148, 15.88745042068185]</t>
+          <t>[8.882691856722756, 17.494620483120833]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.128101381198121e-06</v>
+        <v>1.751803546667929e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.128101381198121e-06</v>
+        <v>1.751803546667929e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2387387387387392</v>
+        <v>21.69945945945963</v>
       </c>
       <c r="Y6" t="n">
-        <v>-10.31351351351364</v>
+        <v>10.1774174174175</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.79099099099112</v>
+        <v>33.22150150150176</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1023,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.85000000000029</v>
+        <v>23.16000000000018</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2065056341689916</v>
+        <v>0.5861240861160935</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2065056341689916</v>
+        <v>0.5861240861160935</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.654094844476404</v>
+        <v>3.205488732162928</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.906796451323821, 14.214986140276629]</t>
+          <t>[-4.92718915178538, 11.338166616111234]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1901460026580026</v>
+        <v>0.431444952683735</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1901460026580026</v>
+        <v>0.431444952683735</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5723422051585008</v>
+        <v>-0.2138421425866923</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.5409478119124653, 3.685632222229467]</t>
+          <t>[-3.3460005840035434, 2.9183162988301588]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.7129188256602306</v>
+        <v>0.8912418657387706</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7129188256602306</v>
+        <v>0.8912418657387706</v>
       </c>
       <c r="T7" t="n">
-        <v>12.28195143236766</v>
+        <v>12.07696752803171</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.8232525412250515, 16.740650323510273]</t>
+          <t>[7.616784217161371, 16.537150838902047]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.455839665487346e-06</v>
+        <v>2.004559769286374e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.455839665487346e-06</v>
+        <v>2.004559769286374e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>21.67747747747774</v>
+        <v>0.7882282282282311</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.85990990991003</v>
+        <v>-10.75699699699708</v>
       </c>
       <c r="Z7" t="n">
-        <v>33.49504504504545</v>
+        <v>12.33345345345355</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1109,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.85000000000029</v>
+        <v>23.16000000000018</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2143724999783976</v>
+        <v>0.2030783359668645</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2143724999783976</v>
+        <v>0.2030783359668645</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.994303577032705</v>
+        <v>4.876763045399805</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.182459386072537, 12.171066540137947]</t>
+          <t>[-1.7619396908172025, 11.515465781616813]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1678907365138116</v>
+        <v>0.1459600051911127</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1678907365138116</v>
+        <v>0.1459600051911127</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2012631930227693</v>
+        <v>-0.07547369738353815</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.9937899962136965, 2.591263610168158]</t>
+          <t>[-2.52207938756658, 2.3711319927995036]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.8852323130742965</v>
+        <v>0.9507330849987048</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8852323130742965</v>
+        <v>0.9507330849987048</v>
       </c>
       <c r="T8" t="n">
-        <v>9.26139440383896</v>
+        <v>10.93378932631997</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.272928176758814, 13.249860630919105]</t>
+          <t>[7.050679128635579, 14.816899524004363]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.67559056954525e-05</v>
+        <v>9.583267610580037e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>2.67559056954525e-05</v>
+        <v>9.583267610580037e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7639639639639704</v>
+        <v>0.2781981981981971</v>
       </c>
       <c r="Y8" t="n">
-        <v>-9.836036036036157</v>
+        <v>-8.740060060060131</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.3639639639641</v>
+        <v>9.296456456456525</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1195,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.85000000000029</v>
+        <v>23.16000000000018</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04505366289941415</v>
+        <v>0.2773223763879433</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04505366289941415</v>
+        <v>0.2773223763879433</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>7.486682964152179</v>
+        <v>5.025355683507671</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.49173844110178955, 15.465104369406147]</t>
+          <t>[-3.1041699527851563, 13.154881319800499]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.06521396749050012</v>
+        <v>0.2195617541271375</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06521396749050012</v>
+        <v>0.2195617541271375</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4213948103914236</v>
+        <v>0.1698158191129613</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.1698423094448476, 2.0126319302276947]</t>
+          <t>[-2.8554215510105427, 3.1950531892364653]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.5963959009977726</v>
+        <v>0.9104876194008162</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5963959009977726</v>
+        <v>0.9104876194008162</v>
       </c>
       <c r="T9" t="n">
-        <v>11.3106350697841</v>
+        <v>12.22445012071312</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.166208309294518, 15.455061830273678]</t>
+          <t>[7.751760052956019, 16.697140188470215]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.732506327511985e-06</v>
+        <v>1.685719841937328e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.732506327511985e-06</v>
+        <v>1.685719841937328e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>22.25045045045072</v>
+        <v>22.53405405405423</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.21036036036056</v>
+        <v>11.38294294294303</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.29054054054088</v>
+        <v>33.68516516516543</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1281,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.85000000000029</v>
+        <v>23.16000000000018</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08003782592865516</v>
+        <v>0.1964930448077519</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08003782592865516</v>
+        <v>0.1964930448077519</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.863122002707359</v>
+        <v>5.594427678445587</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.2088954422377487, 13.935139447652466]</t>
+          <t>[-2.6518612938606125, 13.840716650751787]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.05685897199887258</v>
+        <v>0.1786016755381488</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05685897199887258</v>
+        <v>0.1786016755381488</v>
       </c>
       <c r="P10" t="n">
-        <v>0.006289474781961069</v>
+        <v>0.3962369112635775</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.4088423511593868, 1.421421300723309]</t>
+          <t>[-2.6227109840779654, 3.4151848066051205]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.9928973432811046</v>
+        <v>0.7927164052860123</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9928973432811046</v>
+        <v>0.7927164052860123</v>
       </c>
       <c r="T10" t="n">
-        <v>10.99876416683304</v>
+        <v>11.44824281897908</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.758215929619285, 15.239312404046789]</t>
+          <t>[7.065752217203929, 15.830733420754221]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.348259741160376e-06</v>
+        <v>3.834886213471833e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>4.348259741160376e-06</v>
+        <v>3.834886213471833e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>23.82612612612642</v>
+        <v>21.69945945945963</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.45450450450473</v>
+        <v>10.57153153153161</v>
       </c>
       <c r="Z10" t="n">
-        <v>29.1977477477481</v>
+        <v>32.82738738738765</v>
       </c>
     </row>
   </sheetData>
